--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1614,19 +1616,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>35</v>
@@ -1643,19 +1645,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>132.3</v>
@@ -1672,19 +1674,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>51.3</v>
@@ -1701,19 +1703,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>45</v>
@@ -1730,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1759,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.34</v>
+        <v>0.42</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1788,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1817,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>2.38</v>
+        <v>0.42</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1846,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1875,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>3.4</v>
+        <v>0.84</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1904,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>3.49</v>
+        <v>0.91</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1933,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>2.57</v>
+        <v>0.37</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1962,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1991,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2020,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2049,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>1.92</v>
+        <v>0.38</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2078,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>3.2</v>
+        <v>0.44</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2105,6 +2107,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2128,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2136,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2144,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2152,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2160,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2168,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2176,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2184,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2192,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2200,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2208,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2216,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>108</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2224,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2232,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2240,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2248,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2256,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2395,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2454,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2513,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2631,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2867,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2926,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2985,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3044,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -3162,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -3280,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.4997665811252</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>5.625769793530647</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.85874062016486</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.248515080208049</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.806579666991382</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.327472058092088</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.578526550581022</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.937893119722288</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.6</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4997665811252</v>
+        <v>0.1987440258266808</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>5.625769793530647</v>
+        <v>0.4490814876406875</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>1.85874062016486</v>
+        <v>0.1300591684295566</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>1.248515080208049</v>
+        <v>0.0943044229769599</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>1.806579666991382</v>
+        <v>0.1173397189667984</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>2.327472058092088</v>
+        <v>0.1311024828466263</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>2.578526550581022</v>
+        <v>0.159903775464669</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>3.937893119722288</v>
+        <v>0.2325012947763203</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16.2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1987440258266808</v>
+        <v>2.169568336325831</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4490814876406875</v>
+        <v>3.142694102571462</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1300591684295566</v>
+        <v>1.027190001361975</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0943044229769599</v>
+        <v>0.6427609868848935</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1173397189667984</v>
+        <v>0.998740757138196</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1311024828466263</v>
+        <v>1.407738492790203</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.159903775464669</v>
+        <v>1.335987911894295</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2325012947763203</v>
+        <v>2.17504693755713</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.2375</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.84635</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.8729</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.91133</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>2.169568336325831</v>
+        <v>3.1725</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.77885</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>3.142694102571462</v>
+        <v>3.5208</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>1.027190001361975</v>
+        <v>1.08</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6427609868848935</v>
+        <v>0.72</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.998740757138196</v>
+        <v>1.485</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>1.407738492790203</v>
+        <v>2.025</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6763500000000001</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>1.335987911894295</v>
+        <v>1.3518</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>2.17504693755713</v>
+        <v>3.1725</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.6</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Instances/03_SlowMoving.xlsx
+++ b/Instances/03_SlowMoving.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2375</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>1.84635</v>
+        <v>0.9847200000000002</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8729</v>
+        <v>0.9988800000000002</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>1.91133</v>
+        <v>1.019376</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>1.08</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.1725</v>
+        <v>1.692</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>1.77885</v>
+        <v>0.9487200000000002</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5208</v>
+        <v>1.87776</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.495</v>
+        <v>0.264</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>1.08</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.72</v>
+        <v>0.384</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>1.485</v>
+        <v>0.792</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>2.025</v>
+        <v>1.08</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.08</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6763500000000001</v>
+        <v>0.3607200000000001</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3518</v>
+        <v>0.72096</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>3.1725</v>
+        <v>1.692</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
